--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Calca-Calcrl.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Calca-Calcrl.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.395701</v>
+        <v>0.08856766666666667</v>
       </c>
       <c r="H2">
-        <v>1.187103</v>
+        <v>0.265703</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.06383033333333</v>
+        <v>34.49888633333333</v>
       </c>
       <c r="N2">
-        <v>138.191491</v>
+        <v>103.496659</v>
       </c>
       <c r="O2">
-        <v>0.6011809800814781</v>
+        <v>0.4998067520528027</v>
       </c>
       <c r="P2">
-        <v>0.601180980081478</v>
+        <v>0.4998067520528027</v>
       </c>
       <c r="Q2">
-        <v>18.22750372673033</v>
+        <v>3.055485865141889</v>
       </c>
       <c r="R2">
-        <v>164.047533540573</v>
+        <v>27.499372786277</v>
       </c>
       <c r="S2">
-        <v>0.6011809800814781</v>
+        <v>0.4998067520528027</v>
       </c>
       <c r="T2">
-        <v>0.601180980081478</v>
+        <v>0.4998067520528027</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.395701</v>
+        <v>0.08856766666666667</v>
       </c>
       <c r="H3">
-        <v>1.187103</v>
+        <v>0.265703</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,25 +617,25 @@
         <v>24.118612</v>
       </c>
       <c r="N3">
-        <v>72.355836</v>
+        <v>72.35583600000001</v>
       </c>
       <c r="O3">
-        <v>0.3147730159528758</v>
+        <v>0.3494212830891987</v>
       </c>
       <c r="P3">
-        <v>0.3147730159528758</v>
+        <v>0.3494212830891987</v>
       </c>
       <c r="Q3">
-        <v>9.543758887012</v>
+        <v>2.136129188078667</v>
       </c>
       <c r="R3">
-        <v>85.89382998310799</v>
+        <v>19.225162692708</v>
       </c>
       <c r="S3">
-        <v>0.3147730159528758</v>
+        <v>0.3494212830891987</v>
       </c>
       <c r="T3">
-        <v>0.3147730159528758</v>
+        <v>0.3494212830891987</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.395701</v>
+        <v>0.08856766666666667</v>
       </c>
       <c r="H4">
-        <v>1.187103</v>
+        <v>0.265703</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.439792666666666</v>
+        <v>10.406952</v>
       </c>
       <c r="N4">
-        <v>19.319378</v>
+        <v>31.220856</v>
       </c>
       <c r="O4">
-        <v>0.0840460039656461</v>
+        <v>0.1507719648579985</v>
       </c>
       <c r="P4">
-        <v>0.0840460039656461</v>
+        <v>0.1507719648579985</v>
       </c>
       <c r="Q4">
-        <v>2.548232397992667</v>
+        <v>0.9217194557519999</v>
       </c>
       <c r="R4">
-        <v>22.934091581934</v>
+        <v>8.295475101768</v>
       </c>
       <c r="S4">
-        <v>0.0840460039656461</v>
+        <v>0.1507719648579985</v>
       </c>
       <c r="T4">
-        <v>0.0840460039656461</v>
+        <v>0.1507719648579985</v>
       </c>
     </row>
   </sheetData>
